--- a/Data/SubmitForm.xlsx
+++ b/Data/SubmitForm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vagrant\source\repos\SeleniumUnitTests\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9E6569-B276-456F-9D1E-83EED85EA12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FDA040-CF42-4DD3-A2C3-B16CC17CD371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3615" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Launch</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Chrome Headless</t>
+  </si>
+  <si>
+    <t>__EEF__TIMEOUT</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FFFE44-9B48-4A50-9584-72141351CDC0}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,32 +482,32 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -512,24 +515,21 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -537,45 +537,59 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
     </row>
